--- a/biology/Botanique/Collabiinae/Collabiinae.xlsx
+++ b/biology/Botanique/Collabiinae/Collabiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-tribu des Collabiinae est une sous-tribu de la sous-famille des Epidendroideae, dans la famille des Orchidaceae.
-Robert Louis Dressler proposa en 1993 une classification de la famille des orchidées[1]dans laquelle cette sous-tribu  comprenait trois genres (Chrysoglossum, Collabium &amp; Diglyphosa).
-Depuis 2005, des publications scientifiques[2] indiquent que cette classification doit être révisée. On considère dorénavant qu'il s'agit de la tribu Collabieae incluant le genre Acanthephippium ainsi que  les sous-tribus Collabiinae et Phaiinae.
+Robert Louis Dressler proposa en 1993 une classification de la famille des orchidéesdans laquelle cette sous-tribu  comprenait trois genres (Chrysoglossum, Collabium &amp; Diglyphosa).
+Depuis 2005, des publications scientifiques indiquent que cette classification doit être révisée. On considère dorénavant qu'il s'agit de la tribu Collabieae incluant le genre Acanthephippium ainsi que  les sous-tribus Collabiinae et Phaiinae.
 Il est donc très vraisemblable que la classification actuelle ne soit pas définitive.  
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidées terrestres rarement épiphytes.
 </t>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon la Classification APG III (2009)
-Tribu Collabieae [3]
+          <t>Selon la Classification APG III (2009)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tribu Collabieae 
 Acanthephippium Blume 1825.
 Ancistrochilus Rolfe 1897.
 Calanthe R.Br. 1821.
@@ -566,9 +585,43 @@
 Pilophyllum Schltr. 1914.
 Plocoglottis Blume 1825.
 Spathoglottis Blume 1825.
-Tainia Blume 1825.
-Selon la Classification APG II (2003)
-Sous-Tribu Collabiinae NCBI  (24 jui. 2011)[4]
+Tainia Blume 1825.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Collabiinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collabiinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon la Classification APG II (2003)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous-Tribu Collabiinae NCBI  (24 jui. 2011)
 Acanthephippium
 Ancistrochilus
 Calanthe
@@ -579,9 +632,43 @@
 Phaius
 Plocoglottis
 Spathoglottis
-Tainia
-Selon la Classification de Dressler (1993)
-Chrysoglossum
+Tainia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Collabiinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collabiinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon la Classification de Dressler (1993)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chrysoglossum
 Collabium
 Diglyphosa</t>
         </is>
